--- a/topic.xlsx
+++ b/topic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>great</t>
   </si>
@@ -25,53 +25,20 @@
     <t xml:space="preserve">Boku No Pico full episodes </t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>black dynamite full episodes</t>
-  </si>
-  <si>
-    <t>Mike Tyson Mysteries</t>
-  </si>
-  <si>
-    <t>Mr. Pickles Full Season 1</t>
-  </si>
-  <si>
-    <t>bojack horseman full episodes</t>
-  </si>
-  <si>
-    <t>http://youtubehelpcenter.com/</t>
-  </si>
-  <si>
-    <t>futurama</t>
-  </si>
-  <si>
-    <t>oddly satisfying</t>
-  </si>
-  <si>
-    <t>Pakistani Urdu TV Channel Live- Pakistan news | HumQadam TV (ہم قدم ٹی وی)</t>
-  </si>
-  <si>
-    <t>bob's burgers full episodes</t>
+    <t xml:space="preserve">boondocks </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,9 +61,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,80 +367,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>